--- a/experiments/SAC Others/2_own_reward/overview.xlsx
+++ b/experiments/SAC Others/2_own_reward/overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristina/Documents/Studium/Informatik M.Sc. - Tü/SoSe 2023/social-rl/experiments/SAC Others/2_own_reward/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5AEEA3-70F9-204A-B996-43FA6F4BDD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B728C5-521E-5747-8C90-9B62254336FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="25480" windowHeight="17500" xr2:uid="{9116534F-5493-1548-A60C-C9C46CE4F803}"/>
+    <workbookView xWindow="3500" yWindow="4560" windowWidth="25480" windowHeight="16300" xr2:uid="{9116534F-5493-1548-A60C-C9C46CE4F803}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
